--- a/Excel/dashboard_only.xlsx
+++ b/Excel/dashboard_only.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandy\zportfolio_projects_128gbsdcard\2025_grouped\electric_vehicles\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064AA8A4-5CEC-4549-B216-DE6B571D6E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BA315E-0A56-4014-982A-BBE95C3D5A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2070" windowWidth="21840" windowHeight="13140" xr2:uid="{C8CFBF05-5195-4C1E-8C77-8D4C86AB3357}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E3EF9990-2F16-42B0-8710-1F5963974AD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -75,7 +74,7 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{28048A86-721F-483F-AA72-22F93765F500}"/>
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{6940D51B-5DDC-4DDC-A2E0-07598921F8FA}"/>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -98,17 +97,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>354391</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>139175</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198781</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104095</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE170DA-1A34-8A64-6E8F-6B1D78055469}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF9A1ED2-2E72-4ED6-220A-6F13447CC64E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -125,7 +124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="9498391" cy="5663675"/>
+          <a:ext cx="9952381" cy="5438095"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -138,21 +137,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>372681</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>101088</xdr:rowOff>
+      <xdr:colOff>579809</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>151714</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A75F8DC-BCC6-0594-20FA-54D76AB02AA6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62495D9C-7001-58C2-EBA8-207CFD8D236F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -168,8 +167,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="6096000"/>
-          <a:ext cx="9516681" cy="5816088"/>
+          <a:off x="609600" y="5905500"/>
+          <a:ext cx="9723809" cy="5485714"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -180,23 +179,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>390970</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>128291</xdr:rowOff>
+      <xdr:colOff>494087</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>5633</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437AF985-D541-B58D-8AB5-081699344DCA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81A217C8-F782-854F-9FA4-BDB88A85C06F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -212,8 +211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="609600" y="12192000"/>
-          <a:ext cx="9534970" cy="3176291"/>
+          <a:off x="542925" y="11607800"/>
+          <a:ext cx="9603162" cy="5733333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -541,11 +540,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DA92BDF-317D-4D7C-8503-905DE378C7FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B13240-9385-453C-9C2C-8F76825071F7}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
